--- a/data/pca/factorExposure/factorExposure_2009-12-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.003572589812049555</v>
+        <v>0.01688781478486662</v>
       </c>
       <c r="C2">
-        <v>-0.008987298867719134</v>
+        <v>0.001156079157314841</v>
       </c>
       <c r="D2">
-        <v>-0.001535107630224688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006576595952645691</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002662888489833874</v>
+      </c>
+      <c r="F2">
+        <v>-0.01142664518350392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.02985517615115817</v>
+        <v>0.09373678252819857</v>
       </c>
       <c r="C4">
-        <v>-0.1218281161749486</v>
+        <v>0.01557440868316594</v>
       </c>
       <c r="D4">
-        <v>-0.01800266457120733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08430618705989136</v>
+      </c>
+      <c r="E4">
+        <v>0.02851548022216622</v>
+      </c>
+      <c r="F4">
+        <v>0.03071974797771526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03709769313571677</v>
+        <v>0.1572637903119906</v>
       </c>
       <c r="C6">
-        <v>-0.111494381405641</v>
+        <v>0.02536851672445858</v>
       </c>
       <c r="D6">
-        <v>0.03522235864902066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02217797517913924</v>
+      </c>
+      <c r="E6">
+        <v>0.008874403453728148</v>
+      </c>
+      <c r="F6">
+        <v>0.04646403378112383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01003917460318343</v>
+        <v>0.06266941366977626</v>
       </c>
       <c r="C7">
-        <v>-0.08048470069357799</v>
+        <v>-0.001198309594710772</v>
       </c>
       <c r="D7">
-        <v>-0.0002292190456399238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05202455256869372</v>
+      </c>
+      <c r="E7">
+        <v>0.00977380736031663</v>
+      </c>
+      <c r="F7">
+        <v>0.04660886513719978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002843165961647161</v>
+        <v>0.0571303807268294</v>
       </c>
       <c r="C8">
-        <v>-0.06500584389777869</v>
+        <v>-0.01344438029868194</v>
       </c>
       <c r="D8">
-        <v>0.0210635397073642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03362275231757863</v>
+      </c>
+      <c r="E8">
+        <v>0.01752352693106135</v>
+      </c>
+      <c r="F8">
+        <v>-0.02821363974763349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.025104530861283</v>
+        <v>0.07127071186405771</v>
       </c>
       <c r="C9">
-        <v>-0.1006066731042285</v>
+        <v>0.01126731363086771</v>
       </c>
       <c r="D9">
-        <v>-0.02286860573178415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08610962570797574</v>
+      </c>
+      <c r="E9">
+        <v>0.02311899920147971</v>
+      </c>
+      <c r="F9">
+        <v>0.04724403388348308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01143264942060675</v>
+        <v>0.09621512923795693</v>
       </c>
       <c r="C10">
-        <v>-0.02441505667364976</v>
+        <v>0.02048257069444348</v>
       </c>
       <c r="D10">
-        <v>0.1366010484709554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1724948975776651</v>
+      </c>
+      <c r="E10">
+        <v>-0.03696738945087498</v>
+      </c>
+      <c r="F10">
+        <v>-0.05360508066838635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.02929417021904719</v>
+        <v>0.08792500936075535</v>
       </c>
       <c r="C11">
-        <v>-0.1051626141467075</v>
+        <v>0.01089644648606465</v>
       </c>
       <c r="D11">
-        <v>-0.03327245013684742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.115623631633057</v>
+      </c>
+      <c r="E11">
+        <v>0.04590377909922863</v>
+      </c>
+      <c r="F11">
+        <v>0.02152989188861459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02668536769349825</v>
+        <v>0.09211182648869586</v>
       </c>
       <c r="C12">
-        <v>-0.1154543936849549</v>
+        <v>0.007913290898654515</v>
       </c>
       <c r="D12">
-        <v>-0.03083449562499635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.131489232637568</v>
+      </c>
+      <c r="E12">
+        <v>0.04763815428044867</v>
+      </c>
+      <c r="F12">
+        <v>0.02557206409510691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.008993278584990379</v>
+        <v>0.04227247384880088</v>
       </c>
       <c r="C13">
-        <v>-0.04309660995759691</v>
+        <v>0.003414166339460345</v>
       </c>
       <c r="D13">
-        <v>-0.025270897794578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05122297356206178</v>
+      </c>
+      <c r="E13">
+        <v>-0.008580801315314338</v>
+      </c>
+      <c r="F13">
+        <v>0.002437475311881452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01599072410971422</v>
+        <v>0.02301200741693775</v>
       </c>
       <c r="C14">
-        <v>-0.02308740671413384</v>
+        <v>0.01389232067596813</v>
       </c>
       <c r="D14">
-        <v>0.005348451821038839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03309787798483615</v>
+      </c>
+      <c r="E14">
+        <v>0.01716717403620715</v>
+      </c>
+      <c r="F14">
+        <v>0.01438459127350596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01038061638943221</v>
+        <v>0.03286320362595774</v>
       </c>
       <c r="C15">
-        <v>-0.02715381496268014</v>
+        <v>0.004855149866210145</v>
       </c>
       <c r="D15">
-        <v>-0.01230397627112563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04531154860078132</v>
+      </c>
+      <c r="E15">
+        <v>0.006339236278926168</v>
+      </c>
+      <c r="F15">
+        <v>0.02272189911466329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01831930177938795</v>
+        <v>0.07419668915000327</v>
       </c>
       <c r="C16">
-        <v>-0.1094884165012777</v>
+        <v>0.001965370629834636</v>
       </c>
       <c r="D16">
-        <v>-0.01312428534144358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1252269674854559</v>
+      </c>
+      <c r="E16">
+        <v>0.06152030680743954</v>
+      </c>
+      <c r="F16">
+        <v>0.02438475639273913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03159401515557195</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003268593119344909</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01892325792406766</v>
+      </c>
+      <c r="E18">
+        <v>-0.007496357543421015</v>
+      </c>
+      <c r="F18">
+        <v>-0.003603992587199157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0117288948980496</v>
+        <v>0.06103064860672165</v>
       </c>
       <c r="C20">
-        <v>-0.06492045981507227</v>
+        <v>0.0003330514063034136</v>
       </c>
       <c r="D20">
-        <v>-0.0001275746105538049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07711857190079806</v>
+      </c>
+      <c r="E20">
+        <v>0.05544214662463851</v>
+      </c>
+      <c r="F20">
+        <v>0.02316204734598225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01261733111909323</v>
+        <v>0.0404290181541544</v>
       </c>
       <c r="C21">
-        <v>-0.02398334372451006</v>
+        <v>0.006488169754035133</v>
       </c>
       <c r="D21">
-        <v>0.001429622676609689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03680427578044835</v>
+      </c>
+      <c r="E21">
+        <v>-0.005748648494342173</v>
+      </c>
+      <c r="F21">
+        <v>-0.02409171136985752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.004856293230037054</v>
+        <v>0.04395519343889371</v>
       </c>
       <c r="C22">
-        <v>-0.02776494932933825</v>
+        <v>0.001034415663755137</v>
       </c>
       <c r="D22">
-        <v>0.04205360198703516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003033406566678035</v>
+      </c>
+      <c r="E22">
+        <v>0.02954008413658272</v>
+      </c>
+      <c r="F22">
+        <v>-0.03463126053851065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.004844255287092017</v>
+        <v>0.04394077213582223</v>
       </c>
       <c r="C23">
-        <v>-0.02769780566929035</v>
+        <v>0.001030142791928504</v>
       </c>
       <c r="D23">
-        <v>0.04212804732844001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003038090521091719</v>
+      </c>
+      <c r="E23">
+        <v>0.02974160684793964</v>
+      </c>
+      <c r="F23">
+        <v>-0.03459427503969331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.01879515759841626</v>
+        <v>0.08026746137189797</v>
       </c>
       <c r="C24">
-        <v>-0.1112206954001138</v>
+        <v>0.002535062384671982</v>
       </c>
       <c r="D24">
-        <v>-0.02379874167765302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.119822595256102</v>
+      </c>
+      <c r="E24">
+        <v>0.0489270878505552</v>
+      </c>
+      <c r="F24">
+        <v>0.02575072469973447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0242222045573635</v>
+        <v>0.08523508042079271</v>
       </c>
       <c r="C25">
-        <v>-0.1120132517708062</v>
+        <v>0.004738345881332265</v>
       </c>
       <c r="D25">
-        <v>-0.01976598611181459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1083295980016905</v>
+      </c>
+      <c r="E25">
+        <v>0.03226409702757904</v>
+      </c>
+      <c r="F25">
+        <v>0.02640467367980791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02383936773009731</v>
+        <v>0.05753275413464776</v>
       </c>
       <c r="C26">
-        <v>-0.04818007928678162</v>
+        <v>0.01453595722862802</v>
       </c>
       <c r="D26">
-        <v>0.01959469408624843</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03958378575685993</v>
+      </c>
+      <c r="E26">
+        <v>0.02764875157206214</v>
+      </c>
+      <c r="F26">
+        <v>-0.009793569302001277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.004040162664626761</v>
+        <v>0.1406913740676813</v>
       </c>
       <c r="C28">
-        <v>-0.02833907086953151</v>
+        <v>0.01955288761932962</v>
       </c>
       <c r="D28">
-        <v>0.1946427867086351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2633664386976637</v>
+      </c>
+      <c r="E28">
+        <v>-0.06799323385920972</v>
+      </c>
+      <c r="F28">
+        <v>0.009304516936707342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01282720998861452</v>
+        <v>0.02771618010437439</v>
       </c>
       <c r="C29">
-        <v>-0.02813393369686164</v>
+        <v>0.008146767142642855</v>
       </c>
       <c r="D29">
-        <v>0.01136097045554981</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0323749462284561</v>
+      </c>
+      <c r="E29">
+        <v>0.01127495938594487</v>
+      </c>
+      <c r="F29">
+        <v>-0.01033493983757698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01502618424283222</v>
+        <v>0.06155083238139906</v>
       </c>
       <c r="C30">
-        <v>-0.1300405568339461</v>
+        <v>0.003795597979888062</v>
       </c>
       <c r="D30">
-        <v>-0.01773288333346392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08790218473747624</v>
+      </c>
+      <c r="E30">
+        <v>0.01914369856876644</v>
+      </c>
+      <c r="F30">
+        <v>0.08311113669289362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02177295859003938</v>
+        <v>0.04994744489058821</v>
       </c>
       <c r="C31">
-        <v>-0.03660365614128721</v>
+        <v>0.01522976277402205</v>
       </c>
       <c r="D31">
-        <v>0.00432491068268093</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02494731346771949</v>
+      </c>
+      <c r="E31">
+        <v>0.02752612680692515</v>
+      </c>
+      <c r="F31">
+        <v>-0.002789034461195996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.007387277113604325</v>
+        <v>0.05006297140107249</v>
       </c>
       <c r="C32">
-        <v>-0.06032944458754107</v>
+        <v>-0.001716735116906365</v>
       </c>
       <c r="D32">
-        <v>0.03004388216462942</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03632394250819395</v>
+      </c>
+      <c r="E32">
+        <v>0.03096959108366415</v>
+      </c>
+      <c r="F32">
+        <v>0.002408560653149621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02227591373007339</v>
+        <v>0.08942102994849657</v>
       </c>
       <c r="C33">
-        <v>-0.1146828818000011</v>
+        <v>0.007943813565341767</v>
       </c>
       <c r="D33">
-        <v>-0.02119684502113971</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09903534498546473</v>
+      </c>
+      <c r="E33">
+        <v>0.04418111679458095</v>
+      </c>
+      <c r="F33">
+        <v>0.03550930834741688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02589731780912173</v>
+        <v>0.06845412729355152</v>
       </c>
       <c r="C34">
-        <v>-0.09544523481398785</v>
+        <v>0.01100526502226952</v>
       </c>
       <c r="D34">
-        <v>-0.01425269913469145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.106447939016848</v>
+      </c>
+      <c r="E34">
+        <v>0.03451984882169128</v>
+      </c>
+      <c r="F34">
+        <v>0.0336066519089979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.00388990936016833</v>
+        <v>0.02413375860846245</v>
       </c>
       <c r="C35">
-        <v>-0.01441330154990089</v>
+        <v>0.002388584839585061</v>
       </c>
       <c r="D35">
-        <v>-0.0003034434853815126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01184996796971118</v>
+      </c>
+      <c r="E35">
+        <v>0.01178075581116023</v>
+      </c>
+      <c r="F35">
+        <v>0.000998225969291213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01079608792494145</v>
+        <v>0.02759045657482099</v>
       </c>
       <c r="C36">
-        <v>-0.0266241878706623</v>
+        <v>0.007127238695653752</v>
       </c>
       <c r="D36">
-        <v>-0.008335390772879724</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03952100295567774</v>
+      </c>
+      <c r="E36">
+        <v>0.01603854207564502</v>
+      </c>
+      <c r="F36">
+        <v>0.01526952809493824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.000422998746605077</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-3.942798357747643e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004378731777959245</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004093350538516187</v>
+      </c>
+      <c r="F37">
+        <v>0.0007469466335779844</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0005740269864554469</v>
+        <v>0.001352895271623409</v>
       </c>
       <c r="C38">
-        <v>-0.004010573912871903</v>
+        <v>0.0002103770882679072</v>
       </c>
       <c r="D38">
-        <v>0.001842623609652843</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004862633363188217</v>
+      </c>
+      <c r="E38">
+        <v>0.0008301176766515076</v>
+      </c>
+      <c r="F38">
+        <v>-0.0005472289088116564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04166867964773494</v>
+        <v>0.1057192661437807</v>
       </c>
       <c r="C39">
-        <v>-0.1660593607004823</v>
+        <v>0.01626536495195564</v>
       </c>
       <c r="D39">
-        <v>-0.04775639107539145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.153449794608145</v>
+      </c>
+      <c r="E39">
+        <v>0.05894619797963929</v>
+      </c>
+      <c r="F39">
+        <v>0.02802052459144258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01110939042313922</v>
+        <v>0.0410613261936888</v>
       </c>
       <c r="C40">
-        <v>-0.01350950728427757</v>
+        <v>0.007077988613047529</v>
       </c>
       <c r="D40">
-        <v>0.008726852500277396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03129038486453872</v>
+      </c>
+      <c r="E40">
+        <v>0.002913158969953747</v>
+      </c>
+      <c r="F40">
+        <v>-0.01602741291470455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01128626154225254</v>
+        <v>0.0275546279220055</v>
       </c>
       <c r="C41">
-        <v>-0.01959977442370785</v>
+        <v>0.006685406977563204</v>
       </c>
       <c r="D41">
-        <v>0.0165415401209448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01084733112106693</v>
+      </c>
+      <c r="E41">
+        <v>0.0126557033770399</v>
+      </c>
+      <c r="F41">
+        <v>-0.00683321016452831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01315594769113039</v>
+        <v>0.04046140123474258</v>
       </c>
       <c r="C43">
-        <v>-0.02701971307712818</v>
+        <v>0.006679280375781411</v>
       </c>
       <c r="D43">
-        <v>0.01146196393863181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02063607466200935</v>
+      </c>
+      <c r="E43">
+        <v>0.02515950986573198</v>
+      </c>
+      <c r="F43">
+        <v>-0.01281702240938771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03108783966611137</v>
+        <v>0.08045376359378974</v>
       </c>
       <c r="C44">
-        <v>-0.1299048238023607</v>
+        <v>0.02015315218363452</v>
       </c>
       <c r="D44">
-        <v>-0.0020758156099763</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09859835627700399</v>
+      </c>
+      <c r="E44">
+        <v>0.06650035108783058</v>
+      </c>
+      <c r="F44">
+        <v>0.1573012729304626</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005438632992107263</v>
+        <v>0.02347854118245992</v>
       </c>
       <c r="C46">
-        <v>-0.005898960365716299</v>
+        <v>0.003302754816928895</v>
       </c>
       <c r="D46">
-        <v>0.01907433808611649</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01396486260116726</v>
+      </c>
+      <c r="E46">
+        <v>0.02272752961172748</v>
+      </c>
+      <c r="F46">
+        <v>-0.004523098462802889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0102096076238399</v>
+        <v>0.0513873938184199</v>
       </c>
       <c r="C47">
-        <v>-0.03226019882435493</v>
+        <v>0.003463165583793015</v>
       </c>
       <c r="D47">
-        <v>0.02794599034223434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01412224497508298</v>
+      </c>
+      <c r="E47">
+        <v>0.0237555307202901</v>
+      </c>
+      <c r="F47">
+        <v>-0.03374639521375204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01181680301810806</v>
+        <v>0.0496692103346651</v>
       </c>
       <c r="C48">
-        <v>-0.04748129026825795</v>
+        <v>0.002360249538348297</v>
       </c>
       <c r="D48">
-        <v>-0.01151284862706696</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04996368636923987</v>
+      </c>
+      <c r="E48">
+        <v>-0.006343964630000639</v>
+      </c>
+      <c r="F48">
+        <v>0.009297793900702978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.03638678048638579</v>
+        <v>0.1995285706573561</v>
       </c>
       <c r="C49">
-        <v>-0.2158623629587581</v>
+        <v>0.01858723066365314</v>
       </c>
       <c r="D49">
-        <v>0.06616423933410982</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007749321120940396</v>
+      </c>
+      <c r="E49">
+        <v>0.03153920325642756</v>
+      </c>
+      <c r="F49">
+        <v>0.03882013411809754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01840835878956724</v>
+        <v>0.05073957414919067</v>
       </c>
       <c r="C50">
-        <v>-0.04051340829351648</v>
+        <v>0.01125419203959798</v>
       </c>
       <c r="D50">
-        <v>0.01169705116091441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02334980648782758</v>
+      </c>
+      <c r="E50">
+        <v>0.02933367657559661</v>
+      </c>
+      <c r="F50">
+        <v>0.00857861446458493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0004534973028270913</v>
+        <v>0.0009186953700625061</v>
       </c>
       <c r="C51">
-        <v>-0.002227929085324976</v>
+        <v>0.0002585365992216936</v>
       </c>
       <c r="D51">
-        <v>0.003194513065619747</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0006302247560589018</v>
+      </c>
+      <c r="E51">
+        <v>7.266069133270407e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.002906877192653172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02988627894976102</v>
+        <v>0.1461204056533501</v>
       </c>
       <c r="C52">
-        <v>-0.1518343758774914</v>
+        <v>0.01543554704743629</v>
       </c>
       <c r="D52">
-        <v>-0.01974613138248648</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04557908236922675</v>
+      </c>
+      <c r="E52">
+        <v>0.02049227663541585</v>
+      </c>
+      <c r="F52">
+        <v>0.04090826375389269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03101317074192684</v>
+        <v>0.1725729142833472</v>
       </c>
       <c r="C53">
-        <v>-0.1733067912653667</v>
+        <v>0.01877915806470536</v>
       </c>
       <c r="D53">
-        <v>0.01487806872838915</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005645453538812162</v>
+      </c>
+      <c r="E53">
+        <v>0.03119181694621907</v>
+      </c>
+      <c r="F53">
+        <v>0.07254939338655977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0157496428772706</v>
+        <v>0.02222310376399144</v>
       </c>
       <c r="C54">
-        <v>-0.03892640621838845</v>
+        <v>0.01253745752929863</v>
       </c>
       <c r="D54">
-        <v>0.01258532688403331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03380153943419259</v>
+      </c>
+      <c r="E54">
+        <v>0.018358988008746</v>
+      </c>
+      <c r="F54">
+        <v>-0.003795080468882426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02410031940472056</v>
+        <v>0.1140611753056637</v>
       </c>
       <c r="C55">
-        <v>-0.08623219870137433</v>
+        <v>0.01648503029846318</v>
       </c>
       <c r="D55">
-        <v>-0.002300765904802912</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009416048543902872</v>
+      </c>
+      <c r="E55">
+        <v>0.02783941618124749</v>
+      </c>
+      <c r="F55">
+        <v>0.04657984892045937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03204103163997353</v>
+        <v>0.1770487490569944</v>
       </c>
       <c r="C56">
-        <v>-0.1600625250334713</v>
+        <v>0.01618058567949243</v>
       </c>
       <c r="D56">
-        <v>0.02694328125567462</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001336302877346035</v>
+      </c>
+      <c r="E56">
+        <v>0.03563673407825239</v>
+      </c>
+      <c r="F56">
+        <v>0.05092415519538264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01248181721048803</v>
+        <v>0.04663419987931422</v>
       </c>
       <c r="C58">
-        <v>-0.04978981334853514</v>
+        <v>0.0008693240008277335</v>
       </c>
       <c r="D58">
-        <v>-0.007155691086031812</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06688578234094343</v>
+      </c>
+      <c r="E58">
+        <v>0.0275937267026772</v>
+      </c>
+      <c r="F58">
+        <v>-0.03658502802396416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01186718518749409</v>
+        <v>0.1671418383839297</v>
       </c>
       <c r="C59">
-        <v>-0.08176832851150788</v>
+        <v>0.0196878048454167</v>
       </c>
       <c r="D59">
-        <v>0.2094989881943516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2168070708200374</v>
+      </c>
+      <c r="E59">
+        <v>-0.04466807625502529</v>
+      </c>
+      <c r="F59">
+        <v>-0.03536444783752168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.02476170411581351</v>
+        <v>0.2311706589424009</v>
       </c>
       <c r="C60">
-        <v>-0.2727145236965816</v>
+        <v>-0.002713499473197171</v>
       </c>
       <c r="D60">
-        <v>-0.007074621642800745</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0420898553189548</v>
+      </c>
+      <c r="E60">
+        <v>0.01114092152031116</v>
+      </c>
+      <c r="F60">
+        <v>-0.006503351982729234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.02932875677492204</v>
+        <v>0.08234214856222548</v>
       </c>
       <c r="C61">
-        <v>-0.1238308140862387</v>
+        <v>0.01217999507691106</v>
       </c>
       <c r="D61">
-        <v>-0.01689951626806291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155675387809665</v>
+      </c>
+      <c r="E61">
+        <v>0.03857220749038425</v>
+      </c>
+      <c r="F61">
+        <v>0.0108899730715573</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03397416207647017</v>
+        <v>0.1705833731386946</v>
       </c>
       <c r="C62">
-        <v>-0.1627593969234361</v>
+        <v>0.01952002372569825</v>
       </c>
       <c r="D62">
-        <v>0.022846035934403</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007244002574821567</v>
+      </c>
+      <c r="E62">
+        <v>0.03495299173021559</v>
+      </c>
+      <c r="F62">
+        <v>0.03434813735389137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01206308867069388</v>
+        <v>0.04558587521172318</v>
       </c>
       <c r="C63">
-        <v>-0.05354399381840945</v>
+        <v>0.00200565964451585</v>
       </c>
       <c r="D63">
-        <v>-0.003530565772623286</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05830434238306256</v>
+      </c>
+      <c r="E63">
+        <v>0.02126993302670085</v>
+      </c>
+      <c r="F63">
+        <v>0.005829696697896298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02317146737019339</v>
+        <v>0.1109586691491737</v>
       </c>
       <c r="C64">
-        <v>-0.09555166261321861</v>
+        <v>0.0113441759474998</v>
       </c>
       <c r="D64">
-        <v>0.007456849466309044</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04238352679645998</v>
+      </c>
+      <c r="E64">
+        <v>0.02394799120819839</v>
+      </c>
+      <c r="F64">
+        <v>0.0256267762338874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.03763985642860167</v>
+        <v>0.1480605181575792</v>
       </c>
       <c r="C65">
-        <v>-0.104788234254475</v>
+        <v>0.03263191010526543</v>
       </c>
       <c r="D65">
-        <v>0.01489614500074733</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04217474543307241</v>
+      </c>
+      <c r="E65">
+        <v>0.002871883563452646</v>
+      </c>
+      <c r="F65">
+        <v>0.04001177580386821</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04035364815851929</v>
+        <v>0.1253189288273268</v>
       </c>
       <c r="C66">
-        <v>-0.1970957494606848</v>
+        <v>0.01438431419996092</v>
       </c>
       <c r="D66">
-        <v>-0.03017056631617015</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1418746673431621</v>
+      </c>
+      <c r="E66">
+        <v>0.06650173200856585</v>
+      </c>
+      <c r="F66">
+        <v>0.03062003234161814</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01437662055443399</v>
+        <v>0.06084742846883227</v>
       </c>
       <c r="C67">
-        <v>-0.07663072462515502</v>
+        <v>0.003316340199458973</v>
       </c>
       <c r="D67">
-        <v>-0.0009033889207923079</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05574033835371469</v>
+      </c>
+      <c r="E67">
+        <v>0.01743842678234822</v>
+      </c>
+      <c r="F67">
+        <v>-0.03372834138080141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01498170587876382</v>
+        <v>0.1162443371581761</v>
       </c>
       <c r="C68">
-        <v>-0.01831529231611317</v>
+        <v>0.02999436715049819</v>
       </c>
       <c r="D68">
-        <v>0.1837731004925922</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2602021605138324</v>
+      </c>
+      <c r="E68">
+        <v>-0.08653942563300041</v>
+      </c>
+      <c r="F68">
+        <v>0.00555489207332082</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.00559969125866241</v>
+        <v>0.03980455912001332</v>
       </c>
       <c r="C69">
-        <v>-0.03324275144616429</v>
+        <v>0.001417845250957274</v>
       </c>
       <c r="D69">
-        <v>0.005568268480482987</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007092930273479786</v>
+      </c>
+      <c r="E69">
+        <v>0.02302040607555316</v>
+      </c>
+      <c r="F69">
+        <v>-0.001074230988044571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.001019138189542421</v>
+        <v>0.0659026321369264</v>
       </c>
       <c r="C70">
-        <v>-0.03476725897884018</v>
+        <v>-0.02795035286430459</v>
       </c>
       <c r="D70">
-        <v>0.00285055941427618</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02489615272251022</v>
+      </c>
+      <c r="E70">
+        <v>-0.04005452583337756</v>
+      </c>
+      <c r="F70">
+        <v>-0.1861910850170655</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.01859040401506244</v>
+        <v>0.1364660596774811</v>
       </c>
       <c r="C71">
-        <v>-0.0248810609130816</v>
+        <v>0.03461019504177811</v>
       </c>
       <c r="D71">
-        <v>0.195706102895709</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2733570190304027</v>
+      </c>
+      <c r="E71">
+        <v>-0.09624532150659713</v>
+      </c>
+      <c r="F71">
+        <v>0.01229417589416022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03535156465750874</v>
+        <v>0.1420187559080232</v>
       </c>
       <c r="C72">
-        <v>-0.1186944100098332</v>
+        <v>0.02577024034557332</v>
       </c>
       <c r="D72">
-        <v>0.03835514855704517</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0004871744117246995</v>
+      </c>
+      <c r="E72">
+        <v>0.03873899736741138</v>
+      </c>
+      <c r="F72">
+        <v>0.03517606555475816</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03259996801528701</v>
+        <v>0.2007875641409489</v>
       </c>
       <c r="C73">
-        <v>-0.2180987666519746</v>
+        <v>0.01258051029100842</v>
       </c>
       <c r="D73">
-        <v>0.06224547005614536</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01725624500313341</v>
+      </c>
+      <c r="E73">
+        <v>0.06464671982604893</v>
+      </c>
+      <c r="F73">
+        <v>0.03842321659110944</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0193093466413922</v>
+        <v>0.09498057170853483</v>
       </c>
       <c r="C74">
-        <v>-0.1069602597245632</v>
+        <v>0.01316360959783899</v>
       </c>
       <c r="D74">
-        <v>0.02236664166316552</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0178197016905906</v>
+      </c>
+      <c r="E74">
+        <v>0.04449821937428269</v>
+      </c>
+      <c r="F74">
+        <v>0.05608830146251884</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04050148890021435</v>
+        <v>0.1283083389655881</v>
       </c>
       <c r="C75">
-        <v>-0.1340627053696414</v>
+        <v>0.02767171887511601</v>
       </c>
       <c r="D75">
-        <v>0.03258649971154277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03044989575399848</v>
+      </c>
+      <c r="E75">
+        <v>0.05806135233292539</v>
+      </c>
+      <c r="F75">
+        <v>0.01757976207564672</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0002932102034866623</v>
+        <v>0.0008467364830679066</v>
       </c>
       <c r="C76">
-        <v>-0.002680334648579682</v>
+        <v>0.0002338658632522498</v>
       </c>
       <c r="D76">
-        <v>0.003388224125388761</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0007133421021455495</v>
+      </c>
+      <c r="E76">
+        <v>0.0002474138494668824</v>
+      </c>
+      <c r="F76">
+        <v>0.0007848999512339134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02423401616757285</v>
+        <v>0.08496062439069406</v>
       </c>
       <c r="C77">
-        <v>-0.1012996301381363</v>
+        <v>0.008033193432056683</v>
       </c>
       <c r="D77">
-        <v>-0.0528639135906433</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1135164144653598</v>
+      </c>
+      <c r="E77">
+        <v>0.03846181559081095</v>
+      </c>
+      <c r="F77">
+        <v>0.03080736070575867</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05345413375027298</v>
+        <v>0.09977004857339707</v>
       </c>
       <c r="C78">
-        <v>-0.142960196738267</v>
+        <v>0.0394253916488394</v>
       </c>
       <c r="D78">
-        <v>0.02007822897456175</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1166163040436194</v>
+      </c>
+      <c r="E78">
+        <v>0.07468584263654438</v>
+      </c>
+      <c r="F78">
+        <v>0.04583396578605352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.03567847181459556</v>
+        <v>0.1647205707915211</v>
       </c>
       <c r="C79">
-        <v>-0.1439709911818369</v>
+        <v>0.02217297148233032</v>
       </c>
       <c r="D79">
-        <v>0.03470953676775784</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01640096779738766</v>
+      </c>
+      <c r="E79">
+        <v>0.04703028923740515</v>
+      </c>
+      <c r="F79">
+        <v>0.01104420737483254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.007869569951766946</v>
+        <v>0.08242842909018311</v>
       </c>
       <c r="C80">
-        <v>-0.0795678954233969</v>
+        <v>-0.0008818898930147972</v>
       </c>
       <c r="D80">
-        <v>0.007297778811332169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05736021198199831</v>
+      </c>
+      <c r="E80">
+        <v>0.03725520389446647</v>
+      </c>
+      <c r="F80">
+        <v>-0.02446337176385723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04244066807373297</v>
+        <v>0.1216210950350474</v>
       </c>
       <c r="C81">
-        <v>-0.1387757769572637</v>
+        <v>0.03156187201671084</v>
       </c>
       <c r="D81">
-        <v>0.01794620848769478</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01636432874369131</v>
+      </c>
+      <c r="E81">
+        <v>0.05786911010870881</v>
+      </c>
+      <c r="F81">
+        <v>0.01581602564223086</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.03702313598056681</v>
+        <v>0.1664077390027714</v>
       </c>
       <c r="C82">
-        <v>-0.1653138998346246</v>
+        <v>0.02404188731182531</v>
       </c>
       <c r="D82">
-        <v>0.03114863302534361</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003797268092107166</v>
+      </c>
+      <c r="E82">
+        <v>0.02783970921373556</v>
+      </c>
+      <c r="F82">
+        <v>0.07908849216381199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01721006402577859</v>
+        <v>0.06064693827011742</v>
       </c>
       <c r="C83">
-        <v>-0.07468873084866495</v>
+        <v>0.003099053665708308</v>
       </c>
       <c r="D83">
-        <v>0.004050167569385674</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05014281309733067</v>
+      </c>
+      <c r="E83">
+        <v>0.004783551387708427</v>
+      </c>
+      <c r="F83">
+        <v>-0.03204064037864451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02638372717064498</v>
+        <v>0.05812849043013908</v>
       </c>
       <c r="C84">
-        <v>-0.07797178157372094</v>
+        <v>0.01097467307439068</v>
       </c>
       <c r="D84">
-        <v>-0.01022571038900493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06515637725458197</v>
+      </c>
+      <c r="E84">
+        <v>0.007447879051571027</v>
+      </c>
+      <c r="F84">
+        <v>0.003605078768233512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03722634966557947</v>
+        <v>0.1366450335324919</v>
       </c>
       <c r="C85">
-        <v>-0.118256002327043</v>
+        <v>0.0275078510244985</v>
       </c>
       <c r="D85">
-        <v>0.01592358049624248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01169885598932544</v>
+      </c>
+      <c r="E85">
+        <v>0.03892539144134262</v>
+      </c>
+      <c r="F85">
+        <v>0.0452795747541854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.007881809326970567</v>
+        <v>0.09376494457519761</v>
       </c>
       <c r="C86">
-        <v>-0.08982017195083933</v>
+        <v>-0.006433321222552633</v>
       </c>
       <c r="D86">
-        <v>0.2253128828338735</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04215271864538082</v>
+      </c>
+      <c r="E86">
+        <v>0.2108363572235979</v>
+      </c>
+      <c r="F86">
+        <v>-0.9085276774219045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.03834347342847896</v>
+        <v>0.0970760251774806</v>
       </c>
       <c r="C87">
-        <v>-0.1023103696300409</v>
+        <v>0.02000529556822509</v>
       </c>
       <c r="D87">
-        <v>-0.05686313292468589</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09547681647378901</v>
+      </c>
+      <c r="E87">
+        <v>-0.05098538209316771</v>
+      </c>
+      <c r="F87">
+        <v>0.05313620796996314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01280115629910917</v>
+        <v>0.0608906182474452</v>
       </c>
       <c r="C88">
-        <v>-0.05981150016957656</v>
+        <v>0.002262881349974336</v>
       </c>
       <c r="D88">
-        <v>-0.005793145959928948</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05006275116244432</v>
+      </c>
+      <c r="E88">
+        <v>0.024766319562428</v>
+      </c>
+      <c r="F88">
+        <v>0.01192177749915075</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0001713469811733555</v>
+        <v>0.1343797185916962</v>
       </c>
       <c r="C89">
-        <v>-0.04428742086183605</v>
+        <v>0.01245830711397187</v>
       </c>
       <c r="D89">
-        <v>0.2382637143811323</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2527154296240018</v>
+      </c>
+      <c r="E89">
+        <v>-0.09098682147295546</v>
+      </c>
+      <c r="F89">
+        <v>-0.008331592128816965</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01730770205121654</v>
+        <v>0.1496961564955032</v>
       </c>
       <c r="C90">
-        <v>-0.02782337014516601</v>
+        <v>0.03062545290517731</v>
       </c>
       <c r="D90">
-        <v>0.2054993092525078</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2684569949175482</v>
+      </c>
+      <c r="E90">
+        <v>-0.1114513742016902</v>
+      </c>
+      <c r="F90">
+        <v>-0.0015384103762977</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02283765305924894</v>
+        <v>0.1201128108929841</v>
       </c>
       <c r="C91">
-        <v>-0.09934523175083546</v>
+        <v>0.01857185716926365</v>
       </c>
       <c r="D91">
-        <v>0.02520411542058033</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01279364059048913</v>
+      </c>
+      <c r="E91">
+        <v>0.05618797740245201</v>
+      </c>
+      <c r="F91">
+        <v>-0.003620281754249586</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.001756027079442214</v>
+        <v>0.1476006765286977</v>
       </c>
       <c r="C92">
-        <v>-0.03809686503460963</v>
+        <v>0.02264026646972554</v>
       </c>
       <c r="D92">
-        <v>0.2166028448603976</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2914993318391775</v>
+      </c>
+      <c r="E92">
+        <v>-0.09998900671614448</v>
+      </c>
+      <c r="F92">
+        <v>-0.01358733112530488</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01386378076457665</v>
+        <v>0.1517358808077593</v>
       </c>
       <c r="C93">
-        <v>-0.03885879616513997</v>
+        <v>0.02667466054569406</v>
       </c>
       <c r="D93">
-        <v>0.2234109312580611</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2687980323534703</v>
+      </c>
+      <c r="E93">
+        <v>-0.0772569527996782</v>
+      </c>
+      <c r="F93">
+        <v>0.002868923697651663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04034234216654251</v>
+        <v>0.1309798035494001</v>
       </c>
       <c r="C94">
-        <v>-0.1538563479210968</v>
+        <v>0.02455515121521343</v>
       </c>
       <c r="D94">
-        <v>0.02505359900647463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04303235029247859</v>
+      </c>
+      <c r="E94">
+        <v>0.05768562986363154</v>
+      </c>
+      <c r="F94">
+        <v>0.03560039782305494</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.02506982998932194</v>
+        <v>0.1275072023911706</v>
       </c>
       <c r="C95">
-        <v>-0.1425238927534397</v>
+        <v>0.004089433146520115</v>
       </c>
       <c r="D95">
-        <v>-0.01407706810962759</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0913239082320491</v>
+      </c>
+      <c r="E95">
+        <v>0.04659730788064384</v>
+      </c>
+      <c r="F95">
+        <v>-0.007297415773290836</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9765728843316492</v>
+        <v>0.1052606321905645</v>
       </c>
       <c r="C96">
-        <v>-0.195076610598106</v>
+        <v>-0.9878048960394601</v>
       </c>
       <c r="D96">
-        <v>0.02299514201180876</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04400144889764073</v>
+      </c>
+      <c r="E96">
+        <v>0.05586794319848599</v>
+      </c>
+      <c r="F96">
+        <v>0.04235781032139254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.003941402167269864</v>
+        <v>0.1930648087392845</v>
       </c>
       <c r="C97">
-        <v>-0.1591146689506534</v>
+        <v>-0.007777827217763348</v>
       </c>
       <c r="D97">
-        <v>0.1065133183841648</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01743960097581475</v>
+      </c>
+      <c r="E97">
+        <v>0.01769190218498486</v>
+      </c>
+      <c r="F97">
+        <v>-0.08981364558807738</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.02481227190589869</v>
+        <v>0.2044049984679961</v>
       </c>
       <c r="C98">
-        <v>-0.1998906227871087</v>
+        <v>0.007268937255159086</v>
       </c>
       <c r="D98">
-        <v>0.02870706083144688</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01091948492622018</v>
+      </c>
+      <c r="E98">
+        <v>-0.08531734653343621</v>
+      </c>
+      <c r="F98">
+        <v>-0.09549422896633011</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.003608233440364826</v>
+        <v>0.05543116673209576</v>
       </c>
       <c r="C99">
-        <v>-0.05867544365651763</v>
+        <v>-0.004919516342081102</v>
       </c>
       <c r="D99">
-        <v>0.02196949882350027</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04010003807346153</v>
+      </c>
+      <c r="E99">
+        <v>0.02337273098603175</v>
+      </c>
+      <c r="F99">
+        <v>0.00132049022758632</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.007145132664455357</v>
+        <v>0.1251653483454886</v>
       </c>
       <c r="C100">
-        <v>-0.1996886999018708</v>
+        <v>-0.05383229921253571</v>
       </c>
       <c r="D100">
-        <v>-0.7245983623363934</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3445365657523592</v>
+      </c>
+      <c r="E100">
+        <v>-0.8895426341684134</v>
+      </c>
+      <c r="F100">
+        <v>-0.138562369875011</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01284399856506911</v>
+        <v>0.02763902506124691</v>
       </c>
       <c r="C101">
-        <v>-0.02813892378255061</v>
+        <v>0.008155552848181757</v>
       </c>
       <c r="D101">
-        <v>0.01122173344083238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03208674377014298</v>
+      </c>
+      <c r="E101">
+        <v>0.01072141053449142</v>
+      </c>
+      <c r="F101">
+        <v>-0.01161959651367492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
